--- a/Vit Model Analysis.xlsx
+++ b/Vit Model Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nooxy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0269EF-6A41-43DE-8093-BDF2118420D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B7F583-1058-41E2-8DC0-4E26CE636DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{33C49203-7F80-4236-A5E2-14380551EF1E}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
@@ -142,9 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -464,7 +471,7 @@
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +497,7 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -520,13 +527,13 @@
       <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -534,65 +541,65 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.9798</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.9647</v>
       </c>
       <c r="G4" s="1">
         <v>9.11E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.9839</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>0.96689999999999998</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.98080000000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.96419999999999995</v>
       </c>
       <c r="G5" s="1">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.98470000000000002</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>0.96779999999999999</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -600,33 +607,33 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.98080000000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.96309999999999996</v>
       </c>
       <c r="G6" s="1">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.98409999999999997</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>4.36E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0.96909999999999996</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -634,67 +641,67 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.98140000000000005</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.96009999999999995</v>
       </c>
       <c r="G7" s="1">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>0.98370000000000002</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0.9718</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.98219999999999996</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.96479999999999999</v>
       </c>
       <c r="G8" s="1">
         <v>9.11E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0.98460000000000003</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.96930000000000005</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -702,65 +709,65 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.98060000000000003</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>5.16E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.96030000000000004</v>
       </c>
       <c r="G9" s="1">
         <v>0.1004</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.98360000000000003</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>0.97</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.9819</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.96020000000000005</v>
       </c>
       <c r="G10" s="1">
         <v>9.64E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.98329999999999995</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0.97009999999999996</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -768,33 +775,33 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.98080000000000001</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.96179999999999999</v>
       </c>
       <c r="G11" s="1">
         <v>9.69E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0.98419999999999996</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>0.97170000000000001</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -802,61 +809,61 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.98119999999999996</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.96250000000000002</v>
       </c>
       <c r="G12" s="1">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>0.98460000000000003</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>0.97040000000000004</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.96289999999999998</v>
       </c>
       <c r="G13" s="1">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0.98419999999999996</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>0.96889999999999998</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -864,28 +871,28 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.98080000000000001</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.96009999999999995</v>
       </c>
       <c r="G14" s="1">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>0.98340000000000005</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>0.96930000000000005</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>7.8700000000000006E-2</v>
       </c>
     </row>
@@ -893,28 +900,28 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.9798</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.95920000000000005</v>
       </c>
       <c r="G15" s="1">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>0.98329999999999995</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>0.96740000000000004</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>8.1199999999999994E-2</v>
       </c>
     </row>
@@ -922,28 +929,28 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.96</v>
       </c>
       <c r="G16" s="1">
         <v>0.1004</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>0.98550000000000004</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>0.96919999999999995</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
@@ -951,28 +958,28 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.98009999999999997</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0.96479999999999999</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.1087</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="2">
+        <v>0.1011</v>
+      </c>
+      <c r="H17" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>0.97019999999999995</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <v>7.7399999999999997E-2</v>
       </c>
     </row>
@@ -980,28 +987,28 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>4.58E-2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.96009999999999995</v>
       </c>
-      <c r="G18" s="1">
-        <v>0.15540000000000001</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="2">
+        <v>0.1042</v>
+      </c>
+      <c r="H18" s="2">
         <v>0.98340000000000005</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>0.97009999999999996</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
@@ -1023,7 +1030,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.10037333333333334</v>
+        <v>9.6453333333333335E-2</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
